--- a/output/1Y_P40_1VAL-D.xlsx
+++ b/output/1Y_P40_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.59</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G2" s="1">
-        <v>568.5048</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.59</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E3" s="1">
+        <v>568.5048</v>
+      </c>
       <c r="F3" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>1234.6342</v>
-      </c>
       <c r="H3" s="1">
-        <v>18438.2734</v>
+        <v>8490.1649</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1991</v>
+        <v>8490.1649</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.59</v>
+      </c>
+      <c r="M3" s="1">
         <v>3.57</v>
       </c>
-      <c r="L3" s="1">
-        <v>1826.606</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-8173.394</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1826.606</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20264.8794</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0159</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E4" s="1">
+        <v>1234.6342</v>
+      </c>
       <c r="F4" s="1">
-        <v>662.7395</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1897.3736</v>
+        <v>650.851</v>
       </c>
       <c r="H4" s="1">
-        <v>29000.9764</v>
+        <v>18871.1361</v>
       </c>
       <c r="I4" s="1">
-        <v>30182.6606</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9076</v>
+        <v>18871.1361</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.1991</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1643.9454</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30644.9218</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0126</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E5" s="1">
+        <v>1885.4851</v>
+      </c>
       <c r="F5" s="1">
-        <v>617.3068</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2514.6804</v>
+        <v>606.2333</v>
       </c>
       <c r="H5" s="1">
-        <v>41265.1511</v>
+        <v>30940.2455</v>
       </c>
       <c r="I5" s="1">
-        <v>40365.3212</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0519</v>
+        <v>30940.2455</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.911</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1461.2848</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42726.4359</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0512</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E6" s="1">
+        <v>2491.7184</v>
+      </c>
       <c r="F6" s="1">
-        <v>600.0354</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3114.7158</v>
+        <v>589.2717</v>
       </c>
       <c r="H6" s="1">
-        <v>52582.9436</v>
+        <v>42065.4398</v>
       </c>
       <c r="I6" s="1">
-        <v>50547.9818</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2288</v>
+        <v>42065.4398</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.0532</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1278.6242</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>53861.5679</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0215</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E7" s="1">
+        <v>3080.9902</v>
+      </c>
       <c r="F7" s="1">
-        <v>566.0021</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3680.7179</v>
+        <v>555.8489</v>
       </c>
       <c r="H7" s="1">
-        <v>65874.54429999999</v>
+        <v>55141.0969</v>
       </c>
       <c r="I7" s="1">
-        <v>60730.6424</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.4997</v>
+        <v>55141.0969</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2285</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1095.9636</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>66970.5079</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0487</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E8" s="1">
+        <v>3636.8391</v>
+      </c>
       <c r="F8" s="1">
-        <v>558.3548</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4239.0727</v>
+        <v>548.3388</v>
       </c>
       <c r="H8" s="1">
-        <v>76906.5285</v>
+        <v>65980.62549999999</v>
       </c>
       <c r="I8" s="1">
-        <v>70913.303</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.7285</v>
+        <v>65980.62549999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4978</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>913.303</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77819.8315</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.011</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E9" s="1">
+        <v>4185.1779</v>
+      </c>
       <c r="F9" s="1">
-        <v>532.0232999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4771.096</v>
+        <v>522.4797</v>
       </c>
       <c r="H9" s="1">
-        <v>90842.6225</v>
+        <v>79686.62390000001</v>
       </c>
       <c r="I9" s="1">
-        <v>81095.9636</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.9973</v>
+        <v>79686.62390000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.7257</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>730.6424</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>91573.26489999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0427</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>20.979</v>
       </c>
+      <c r="E10" s="1">
+        <v>4707.6576</v>
+      </c>
       <c r="F10" s="1">
-        <v>485.374</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5256.47</v>
+        <v>476.6671</v>
       </c>
       <c r="H10" s="1">
-        <v>109704.1058</v>
+        <v>98250.2258</v>
       </c>
       <c r="I10" s="1">
-        <v>91278.62420000001</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.365</v>
+        <v>98250.2258</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.9936</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>547.9818</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>110252.0876</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0854</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E11" s="1">
+        <v>5184.3247</v>
+      </c>
       <c r="F11" s="1">
-        <v>454.7637</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5711.2337</v>
+        <v>446.606</v>
       </c>
       <c r="H11" s="1">
-        <v>127218.3029</v>
+        <v>115481.3514</v>
       </c>
       <c r="I11" s="1">
-        <v>101461.2848</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7652</v>
+        <v>115481.3514</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.36</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>365.3212</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>127583.6241</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.061</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E12" s="1">
+        <v>5630.9307</v>
+      </c>
       <c r="F12" s="1">
-        <v>437.9017</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6149.1355</v>
+        <v>430.0465</v>
       </c>
       <c r="H12" s="1">
-        <v>142246.1066</v>
+        <v>130258.6313</v>
       </c>
       <c r="I12" s="1">
-        <v>111643.9454</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.156</v>
+        <v>130258.6313</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7591</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>182.6606</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>142428.7672</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0352</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>22.965</v>
       </c>
+      <c r="E13" s="1">
+        <v>6060.9772</v>
+      </c>
       <c r="F13" s="1">
-        <v>443.3991</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6592.5346</v>
+        <v>435.4452</v>
       </c>
       <c r="H13" s="1">
-        <v>150612.3863</v>
+        <v>138468.4794</v>
       </c>
       <c r="I13" s="1">
-        <v>121826.606</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.4795</v>
+        <v>138468.4794</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.1489</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10182.6606</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>150612.3863</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0119</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E14" s="1">
+        <v>6496.4225</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6592.5346</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6060.9772</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129040.3883</v>
       </c>
       <c r="I14" s="1">
-        <v>121826.606</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.4795</v>
+        <v>129040.3883</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.9324</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>130949.4926</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>130949.4926</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130949.4926</v>
+        <v>120391.0088</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1847</v>
+        <v>-0.1309</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.59</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>568.5048</v>
       </c>
       <c r="G2" s="1">
-        <v>568.5048</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.59</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.0121</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>568.5048</v>
       </c>
       <c r="F3" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1234.6342</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>18438.2734</v>
+        <v>8490.1649</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1991</v>
+        <v>8490.1649</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.59</v>
+      </c>
+      <c r="M3" s="1">
         <v>3.57</v>
       </c>
-      <c r="L3" s="1">
-        <v>1826.606</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-8173.394</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1826.606</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20264.8794</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0159</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.3645</v>
       </c>
       <c r="E4" s="1">
+        <v>1234.6342</v>
+      </c>
+      <c r="F4" s="1">
+        <v>650.851</v>
+      </c>
+      <c r="G4" s="1">
         <v>30000</v>
       </c>
-      <c r="F4" s="1">
-        <v>728.1001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1962.7342</v>
-      </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>18871.1361</v>
       </c>
       <c r="I4" s="1">
-        <v>31186.8934</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8895</v>
+        <v>18871.1361</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.1991</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-11186.8934</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>639.7126</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30639.7126</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0124</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.4953</v>
       </c>
       <c r="E5" s="1">
+        <v>1885.4851</v>
+      </c>
+      <c r="F5" s="1">
+        <v>552.0975</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>474.8484</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2437.5826</v>
-      </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30940.2455</v>
       </c>
       <c r="I5" s="1">
-        <v>39019.6608</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0075</v>
+        <v>30940.2455</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29107.014</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4374</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-7832.7673</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>2806.9453</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42806.9453</v>
+        <v>-9107.013999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0533</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.9701</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2437.5826</v>
       </c>
       <c r="F6" s="1">
         <v>524.1342</v>
       </c>
       <c r="G6" s="1">
-        <v>2961.7168</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41151.514</v>
       </c>
       <c r="I6" s="1">
-        <v>47914.2705</v>
+        <v>892.986</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1779</v>
+        <v>42044.5</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38001.6238</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.5899</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8894.6098</v>
       </c>
-      <c r="O6" s="1">
-        <v>3912.3355</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53912.3355</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0209</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.9905</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2961.7168</v>
       </c>
       <c r="F7" s="1">
         <v>390.7629</v>
       </c>
       <c r="G7" s="1">
-        <v>3352.4797</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>53006.4388</v>
       </c>
       <c r="I7" s="1">
-        <v>54944.2899</v>
+        <v>1998.3762</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3891</v>
+        <v>55004.815</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45031.6432</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.2046</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7030.0194</v>
       </c>
-      <c r="O7" s="1">
-        <v>6882.3161</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66882.3161</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0465</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.2369</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3352.4797</v>
       </c>
       <c r="F8" s="1">
         <v>505.9065</v>
       </c>
       <c r="G8" s="1">
-        <v>3858.3862</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60821.6928</v>
       </c>
       <c r="I8" s="1">
-        <v>64170.4559</v>
+        <v>4968.3568</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6314</v>
+        <v>65790.0496</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54257.8092</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.1844</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9226.165999999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>7656.1501</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77656.1501</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0101</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>19.1395</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3858.3862</v>
       </c>
       <c r="F9" s="1">
         <v>343.2503</v>
       </c>
       <c r="G9" s="1">
-        <v>4201.6365</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>73464.44500000001</v>
       </c>
       <c r="I9" s="1">
-        <v>70740.09570000001</v>
+        <v>5742.1908</v>
       </c>
       <c r="J9" s="1">
-        <v>16.8363</v>
+        <v>79206.6358</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>60827.4489</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.765</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6569.6398</v>
       </c>
-      <c r="O9" s="1">
-        <v>11086.5103</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91086.51029999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0391</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>20.979</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4201.6365</v>
       </c>
       <c r="F10" s="1">
         <v>110.7116</v>
       </c>
       <c r="G10" s="1">
-        <v>4312.3482</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>87689.41499999999</v>
       </c>
       <c r="I10" s="1">
-        <v>73062.715</v>
+        <v>9172.551100000001</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9427</v>
+        <v>96861.96610000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>63150.0683</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.0299</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-2322.6193</v>
       </c>
-      <c r="O10" s="1">
-        <v>18763.891</v>
-      </c>
-      <c r="P10" s="1">
-        <v>108763.891</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0759</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>22.3911</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4312.3482</v>
       </c>
       <c r="F11" s="1">
         <v>176.9695</v>
       </c>
       <c r="G11" s="1">
-        <v>4489.3177</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>96057.98669999999</v>
       </c>
       <c r="I11" s="1">
-        <v>77025.2568</v>
+        <v>16849.9317</v>
       </c>
       <c r="J11" s="1">
-        <v>17.1575</v>
+        <v>112907.9184</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>67112.61</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5629</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-3962.5418</v>
       </c>
-      <c r="O11" s="1">
-        <v>24801.3493</v>
-      </c>
-      <c r="P11" s="1">
-        <v>124801.3493</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0508</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>23.2533</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>4489.3177</v>
       </c>
       <c r="F12" s="1">
         <v>265.8557</v>
       </c>
       <c r="G12" s="1">
-        <v>4755.1734</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103850.0388</v>
       </c>
       <c r="I12" s="1">
-        <v>83207.2801</v>
+        <v>22887.39</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4983</v>
+        <v>126737.4288</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>73294.63340000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.3265</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6182.0234</v>
       </c>
-      <c r="O12" s="1">
-        <v>28619.3259</v>
-      </c>
-      <c r="P12" s="1">
-        <v>138619.3259</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0283</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>22.965</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>4755.1734</v>
       </c>
       <c r="F13" s="1">
         <v>497.4102</v>
       </c>
       <c r="G13" s="1">
-        <v>5252.5836</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>108636.2163</v>
       </c>
       <c r="I13" s="1">
-        <v>94630.3054</v>
+        <v>26705.3666</v>
       </c>
       <c r="J13" s="1">
-        <v>18.016</v>
+        <v>135341.5829</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>84717.6587</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.8159</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11423.0253</v>
       </c>
-      <c r="O13" s="1">
-        <v>27196.3006</v>
-      </c>
-      <c r="P13" s="1">
-        <v>147196.3006</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>19.9668</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5252.5836</v>
       </c>
       <c r="F14" s="1">
         <v>-5252.5836</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104333.6441</v>
       </c>
       <c r="I14" s="1">
-        <v>94630.3054</v>
+        <v>25282.3413</v>
       </c>
       <c r="J14" s="1">
-        <v>18.016</v>
+        <v>129615.9854</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>84717.6587</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1288</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>104333.6441</v>
       </c>
-      <c r="O14" s="1">
-        <v>131529.9447</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131529.9447</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1633</v>
+        <v>-0.1082</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.59</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>568.5048</v>
       </c>
       <c r="G2" s="1">
-        <v>568.5048</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.59</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.0121</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>568.5048</v>
       </c>
       <c r="F3" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1234.6342</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>18438.2734</v>
+        <v>8490.1649</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1991</v>
+        <v>8490.1649</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.59</v>
+      </c>
+      <c r="M3" s="1">
         <v>3.57</v>
       </c>
-      <c r="L3" s="1">
-        <v>1826.606</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-8173.394</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1826.606</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20264.8794</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0159</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.3645</v>
       </c>
       <c r="E4" s="1">
+        <v>1234.6342</v>
+      </c>
+      <c r="F4" s="1">
+        <v>650.851</v>
+      </c>
+      <c r="G4" s="1">
         <v>30150.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>737.9301</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1972.5642</v>
-      </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>18871.1361</v>
       </c>
       <c r="I4" s="1">
-        <v>31337.9269</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8869</v>
+        <v>18871.1361</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.1991</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-11337.9269</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>488.6791</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30638.9291</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0124</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.4953</v>
       </c>
       <c r="E5" s="1">
+        <v>1885.4851</v>
+      </c>
+      <c r="F5" s="1">
+        <v>570.4404</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>483.3613</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2455.9255</v>
-      </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30940.2455</v>
       </c>
       <c r="I5" s="1">
-        <v>39311.1164</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0066</v>
+        <v>30940.2455</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29409.5854</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.5979</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-7973.1895</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>2515.4897</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42816.4909</v>
+        <v>-9409.5854</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0536</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.9701</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2455.9255</v>
       </c>
       <c r="F6" s="1">
         <v>535.5569</v>
       </c>
       <c r="G6" s="1">
-        <v>2991.4825</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41461.1805</v>
       </c>
       <c r="I6" s="1">
-        <v>48399.5712</v>
+        <v>590.4146</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1791</v>
+        <v>42051.5951</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38498.0402</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6756</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9088.4548</v>
       </c>
-      <c r="O6" s="1">
-        <v>3427.0349</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53929.5411</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0211</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.9905</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2991.4825</v>
       </c>
       <c r="F7" s="1">
         <v>403.1837</v>
       </c>
       <c r="G7" s="1">
-        <v>3394.6661</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>53539.1601</v>
       </c>
       <c r="I7" s="1">
-        <v>55653.0469</v>
+        <v>1501.9598</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3943</v>
+        <v>55041.1199</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45751.5159</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.2939</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7253.4757</v>
       </c>
-      <c r="O7" s="1">
-        <v>6173.5592</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66928.57799999999</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0469</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.2369</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3394.6661</v>
       </c>
       <c r="F8" s="1">
         <v>522.0806</v>
       </c>
       <c r="G8" s="1">
-        <v>3916.7467</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61587.0515</v>
       </c>
       <c r="I8" s="1">
-        <v>65174.1781</v>
+        <v>4248.4841</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6399</v>
+        <v>65835.5355</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55272.6472</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.2822</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9521.1312</v>
       </c>
-      <c r="O8" s="1">
-        <v>6652.4279</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77711.2218</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0102</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>19.1395</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3916.7467</v>
       </c>
       <c r="F9" s="1">
         <v>359.1584</v>
       </c>
       <c r="G9" s="1">
-        <v>4275.9051</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>74575.64079999999</v>
       </c>
       <c r="I9" s="1">
-        <v>72048.2896</v>
+        <v>4727.3528</v>
       </c>
       <c r="J9" s="1">
-        <v>16.8498</v>
+        <v>79302.9936</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62146.7587</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.8669</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6874.1115</v>
       </c>
-      <c r="O9" s="1">
-        <v>9778.3164</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91192.4042</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0397</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>20.979</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4275.9051</v>
       </c>
       <c r="F10" s="1">
         <v>123.7039</v>
       </c>
       <c r="G10" s="1">
-        <v>4399.6089</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>89239.42170000001</v>
       </c>
       <c r="I10" s="1">
-        <v>74643.4728</v>
+        <v>7853.2413</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9659</v>
+        <v>97092.66310000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>64741.9418</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1411</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-2595.1832</v>
       </c>
-      <c r="O10" s="1">
-        <v>17183.1332</v>
-      </c>
-      <c r="P10" s="1">
-        <v>109004.2915</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0772</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>22.3911</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>4399.6089</v>
       </c>
       <c r="F11" s="1">
         <v>192.077</v>
       </c>
       <c r="G11" s="1">
-        <v>4591.686</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>98001.7289</v>
       </c>
       <c r="I11" s="1">
-        <v>78944.2889</v>
+        <v>15258.0582</v>
       </c>
       <c r="J11" s="1">
-        <v>17.1929</v>
+        <v>113259.7871</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>69042.7579</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.6929</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4300.8161</v>
       </c>
-      <c r="O11" s="1">
-        <v>22882.3171</v>
-      </c>
-      <c r="P11" s="1">
-        <v>125162.5812</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0517</v>
+        <v>0.0576</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>23.2533</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>4591.686</v>
       </c>
       <c r="F12" s="1">
         <v>284.1679</v>
       </c>
       <c r="G12" s="1">
-        <v>4875.8539</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>106218.094</v>
       </c>
       <c r="I12" s="1">
-        <v>85552.13099999999</v>
+        <v>20957.2421</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5461</v>
+        <v>127175.336</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>75650.60000000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.4756</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6607.8421</v>
       </c>
-      <c r="O12" s="1">
-        <v>26274.475</v>
-      </c>
-      <c r="P12" s="1">
-        <v>139066.1404</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0289</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>22.965</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>4875.8539</v>
       </c>
       <c r="F13" s="1">
         <v>523.6105</v>
       </c>
       <c r="G13" s="1">
-        <v>5399.4644</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>111393.2705</v>
       </c>
       <c r="I13" s="1">
-        <v>97576.8462</v>
+        <v>24349.4</v>
       </c>
       <c r="J13" s="1">
-        <v>18.0716</v>
+        <v>135742.6705</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>87675.3153</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.9815</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12024.7152</v>
       </c>
-      <c r="O13" s="1">
-        <v>24249.7598</v>
-      </c>
-      <c r="P13" s="1">
-        <v>147605.3835</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0098</v>
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>19.9668</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5399.4644</v>
       </c>
       <c r="F14" s="1">
         <v>-5399.4644</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>107251.1812</v>
       </c>
       <c r="I14" s="1">
-        <v>97576.8462</v>
+        <v>22324.6847</v>
       </c>
       <c r="J14" s="1">
-        <v>18.0716</v>
+        <v>129575.8659</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>87675.3153</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2378</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>107251.1812</v>
       </c>
-      <c r="O14" s="1">
-        <v>131500.941</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131500.941</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1656</v>
+        <v>-0.1109</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.59</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>568.5048</v>
       </c>
       <c r="G2" s="1">
-        <v>568.5048</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.59</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.0121</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>568.5048</v>
       </c>
       <c r="F3" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1234.6342</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>18438.2734</v>
+        <v>8490.1649</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1991</v>
+        <v>8490.1649</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.59</v>
+      </c>
+      <c r="M3" s="1">
         <v>3.57</v>
       </c>
-      <c r="L3" s="1">
-        <v>1826.606</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-8173.394</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1826.606</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20264.8794</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0159</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.3645</v>
       </c>
       <c r="E4" s="1">
+        <v>1234.6342</v>
+      </c>
+      <c r="F4" s="1">
+        <v>650.851</v>
+      </c>
+      <c r="G4" s="1">
         <v>30301</v>
       </c>
-      <c r="F4" s="1">
-        <v>747.7928000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1982.427</v>
-      </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>18871.1361</v>
       </c>
       <c r="I4" s="1">
-        <v>31489.463</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8843</v>
+        <v>18871.1361</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.1991</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-11489.463</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>337.1431</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30638.1431</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0123</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.4953</v>
       </c>
       <c r="E5" s="1">
+        <v>1885.4851</v>
+      </c>
+      <c r="F5" s="1">
+        <v>588.9056</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>491.9638</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2474.3908</v>
-      </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30940.2455</v>
       </c>
       <c r="I5" s="1">
-        <v>39604.5529</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0058</v>
+        <v>30940.2455</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29714.1748</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7594</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-8115.09</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>2222.0531</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42826.0631</v>
+        <v>-9714.174800000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0538</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.9701</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2474.3908</v>
       </c>
       <c r="F6" s="1">
         <v>547.1557</v>
       </c>
       <c r="G6" s="1">
-        <v>3021.5465</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41772.9122</v>
       </c>
       <c r="I6" s="1">
-        <v>48889.8406</v>
+        <v>285.8252</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1804</v>
+        <v>42058.7374</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38999.4624</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.7612</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9285.2876</v>
       </c>
-      <c r="O6" s="1">
-        <v>2936.7655</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53946.8156</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0212</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.9905</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3021.5465</v>
       </c>
       <c r="F7" s="1">
         <v>415.8711</v>
       </c>
       <c r="G7" s="1">
-        <v>3437.4176</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>54077.2219</v>
       </c>
       <c r="I7" s="1">
-        <v>56371.57</v>
+        <v>1000.5376</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3994</v>
+        <v>55077.7596</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46481.1918</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.3832</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7481.7294</v>
       </c>
-      <c r="O7" s="1">
-        <v>5455.036</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66975.1866</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0474</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.2369</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3437.4176</v>
       </c>
       <c r="F8" s="1">
         <v>538.6688</v>
       </c>
       <c r="G8" s="1">
-        <v>3976.0864</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>62362.6617</v>
       </c>
       <c r="I8" s="1">
-        <v>66195.2185</v>
+        <v>3518.8082</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6483</v>
+        <v>65881.46980000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56304.8403</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.38</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9823.648499999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>5631.3875</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77766.7396</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0103</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>19.1395</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3976.0864</v>
       </c>
       <c r="F9" s="1">
         <v>375.5856</v>
       </c>
       <c r="G9" s="1">
-        <v>4351.672</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>75705.4801</v>
       </c>
       <c r="I9" s="1">
-        <v>73383.73970000001</v>
+        <v>3695.1597</v>
       </c>
       <c r="J9" s="1">
-        <v>16.8633</v>
+        <v>79400.6397</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63493.3615</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.9688</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7188.5212</v>
       </c>
-      <c r="O9" s="1">
-        <v>8442.8663</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91299.572</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0403</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>20.979</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4351.672</v>
       </c>
       <c r="F10" s="1">
         <v>137.2559</v>
       </c>
       <c r="G10" s="1">
-        <v>4488.9279</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>90820.7006</v>
       </c>
       <c r="I10" s="1">
-        <v>76263.23149999999</v>
+        <v>6506.6385</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9892</v>
+        <v>97327.3391</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>66372.8533</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.2523</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-2879.4918</v>
       </c>
-      <c r="O10" s="1">
-        <v>15563.3745</v>
-      </c>
-      <c r="P10" s="1">
-        <v>109248.6472</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0785</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>22.3911</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>4488.9279</v>
       </c>
       <c r="F11" s="1">
         <v>207.8916</v>
       </c>
       <c r="G11" s="1">
-        <v>4696.8196</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>99991.3186</v>
       </c>
       <c r="I11" s="1">
-        <v>80918.1537</v>
+        <v>13627.1467</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2283</v>
+        <v>113618.4653</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>71027.7755</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8229</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4654.9222</v>
       </c>
-      <c r="O11" s="1">
-        <v>20908.4523</v>
-      </c>
-      <c r="P11" s="1">
-        <v>125530.5777</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0527</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>23.2533</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>4696.8196</v>
       </c>
       <c r="F12" s="1">
         <v>303.39</v>
       </c>
       <c r="G12" s="1">
-        <v>5000.2095</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>108650.1179</v>
       </c>
       <c r="I12" s="1">
-        <v>87972.9713</v>
+        <v>18972.2245</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5939</v>
+        <v>127622.3423</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>78082.5932</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.6246</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7054.8176</v>
       </c>
-      <c r="O12" s="1">
-        <v>23853.6347</v>
-      </c>
-      <c r="P12" s="1">
-        <v>139521.9814</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0295</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>22.965</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>5000.2095</v>
       </c>
       <c r="F13" s="1">
         <v>551.1161</v>
       </c>
       <c r="G13" s="1">
-        <v>5551.3256</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>114234.2866</v>
       </c>
       <c r="I13" s="1">
-        <v>100629.3528</v>
+        <v>21917.4068</v>
       </c>
       <c r="J13" s="1">
-        <v>18.1271</v>
+        <v>136151.6934</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>90738.97470000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.147</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12656.3815</v>
       </c>
-      <c r="O13" s="1">
-        <v>21197.2532</v>
-      </c>
-      <c r="P13" s="1">
-        <v>148022.2833</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.01</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>19.9668</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5551.3256</v>
       </c>
       <c r="F14" s="1">
         <v>-5551.3256</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>110267.6463</v>
       </c>
       <c r="I14" s="1">
-        <v>100629.3528</v>
+        <v>19261.0253</v>
       </c>
       <c r="J14" s="1">
-        <v>18.1271</v>
+        <v>129528.6717</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>90738.97470000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3455</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>110267.6463</v>
       </c>
-      <c r="O14" s="1">
-        <v>131464.8995</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131464.8995</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1681</v>
+        <v>-0.1137</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.59</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>568.5048</v>
       </c>
       <c r="G2" s="1">
-        <v>568.5048</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.59</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.0121</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>568.5048</v>
       </c>
       <c r="F3" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1234.6342</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>18438.2734</v>
+        <v>8490.1649</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.1991</v>
+        <v>8490.1649</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.59</v>
+      </c>
+      <c r="M3" s="1">
         <v>3.57</v>
       </c>
-      <c r="L3" s="1">
-        <v>1826.606</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-8173.394</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1826.606</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20264.8794</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0159</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.3645</v>
       </c>
       <c r="E4" s="1">
+        <v>1234.6342</v>
+      </c>
+      <c r="F4" s="1">
+        <v>650.851</v>
+      </c>
+      <c r="G4" s="1">
         <v>30452.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>757.6883</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1992.3224</v>
-      </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>18871.1361</v>
       </c>
       <c r="I4" s="1">
-        <v>31641.5016</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8817</v>
+        <v>18871.1361</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.1991</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-11641.5016</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>185.1044</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30637.3544</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0123</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.4953</v>
       </c>
       <c r="E5" s="1">
+        <v>1885.4851</v>
+      </c>
+      <c r="F5" s="1">
+        <v>607.4936</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>500.6563</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2492.9788</v>
-      </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30940.2455</v>
       </c>
       <c r="I5" s="1">
-        <v>39899.9781</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0049</v>
+        <v>30940.2455</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30020.7897</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.9221</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-8258.4764</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1926.628</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>42835.6617</v>
+        <v>-10020.7897</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0541</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.9701</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2492.9788</v>
       </c>
       <c r="F6" s="1">
         <v>558.9324</v>
       </c>
       <c r="G6" s="1">
-        <v>3051.9112</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42086.7169</v>
       </c>
       <c r="I6" s="1">
-        <v>49385.1164</v>
+        <v>-20.7897</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1817</v>
+        <v>42065.9273</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39505.928</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.8469</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9485.1384</v>
       </c>
-      <c r="O6" s="1">
-        <v>2441.4896</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53964.1588</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0214</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.9905</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3051.9112</v>
       </c>
       <c r="F7" s="1">
         <v>428.8294</v>
       </c>
       <c r="G7" s="1">
-        <v>3480.7405</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>54620.6643</v>
       </c>
       <c r="I7" s="1">
-        <v>57099.9712</v>
+        <v>494.072</v>
       </c>
       <c r="J7" s="1">
-        <v>16.4045</v>
+        <v>55114.7362</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47220.7829</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.4725</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7714.8548</v>
       </c>
-      <c r="O7" s="1">
-        <v>4726.6348</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67022.1441</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0478</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.2369</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3480.7405</v>
       </c>
       <c r="F8" s="1">
         <v>555.6794</v>
       </c>
       <c r="G8" s="1">
-        <v>4036.42</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>63148.6388</v>
       </c>
       <c r="I8" s="1">
-        <v>67233.8417</v>
+        <v>2779.2171</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6568</v>
+        <v>65927.8559</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57354.6533</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4777</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10133.8704</v>
       </c>
-      <c r="O8" s="1">
-        <v>4592.7644</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77822.70630000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0104</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>19.1395</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4036.42</v>
       </c>
       <c r="F9" s="1">
         <v>392.5456</v>
       </c>
       <c r="G9" s="1">
-        <v>4428.9656</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>76854.24340000001</v>
       </c>
       <c r="I9" s="1">
-        <v>74746.9691</v>
+        <v>2645.3467</v>
       </c>
       <c r="J9" s="1">
-        <v>16.8768</v>
+        <v>79499.59020000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64867.7807</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0706</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7513.1274</v>
       </c>
-      <c r="O9" s="1">
-        <v>7079.6369</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91408.02800000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0408</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>20.979</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4428.9656</v>
       </c>
       <c r="F10" s="1">
         <v>151.3862</v>
       </c>
       <c r="G10" s="1">
-        <v>4580.3518</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>92433.841</v>
       </c>
       <c r="I10" s="1">
-        <v>77922.9007</v>
+        <v>5132.2193</v>
       </c>
       <c r="J10" s="1">
-        <v>17.0124</v>
+        <v>97566.0603</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>68043.7123</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.3633</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-3175.9316</v>
       </c>
-      <c r="O10" s="1">
-        <v>13903.7054</v>
-      </c>
-      <c r="P10" s="1">
-        <v>109497.0223</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0798</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>22.3911</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>4580.3518</v>
       </c>
       <c r="F11" s="1">
         <v>224.4399</v>
       </c>
       <c r="G11" s="1">
-        <v>4804.7917</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>102027.7952</v>
       </c>
       <c r="I11" s="1">
-        <v>82948.3572</v>
+        <v>11956.2877</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2637</v>
+        <v>113984.0829</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>73069.1688</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.9527</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5025.4565</v>
       </c>
-      <c r="O11" s="1">
-        <v>18878.2488</v>
-      </c>
-      <c r="P11" s="1">
-        <v>125905.4655</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0536</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>23.2533</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>4804.7917</v>
       </c>
       <c r="F12" s="1">
         <v>323.5601</v>
       </c>
       <c r="G12" s="1">
-        <v>5128.3519</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>111147.8061</v>
       </c>
       <c r="I12" s="1">
-        <v>90472.1974</v>
+        <v>16930.8312</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6416</v>
+        <v>128078.6373</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>80593.00900000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7735</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7523.8402</v>
       </c>
-      <c r="O12" s="1">
-        <v>21354.4086</v>
-      </c>
-      <c r="P12" s="1">
-        <v>139987.0336</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>22.965</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>5128.3519</v>
       </c>
       <c r="F13" s="1">
         <v>579.9859</v>
       </c>
       <c r="G13" s="1">
-        <v>5708.3378</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>117161.8136</v>
       </c>
       <c r="I13" s="1">
-        <v>103791.5744</v>
+        <v>19406.991</v>
       </c>
       <c r="J13" s="1">
-        <v>18.1825</v>
+        <v>136568.8046</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>93912.386</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.3124</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13319.377</v>
       </c>
-      <c r="O13" s="1">
-        <v>18035.0316</v>
-      </c>
-      <c r="P13" s="1">
-        <v>148447.1459</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0103</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>19.9668</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5708.3378</v>
       </c>
       <c r="F14" s="1">
         <v>-5708.3378</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>113386.426</v>
       </c>
       <c r="I14" s="1">
-        <v>103791.5744</v>
+        <v>16087.614</v>
       </c>
       <c r="J14" s="1">
-        <v>18.1825</v>
+        <v>129474.04</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>93912.386</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.4518</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>113386.426</v>
       </c>
-      <c r="O14" s="1">
-        <v>131421.4577</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131421.4577</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1706</v>
+        <v>-0.1166</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>19.913</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>18.4795</v>
+        <v>16.9324</v>
       </c>
       <c r="D3" s="1">
-        <v>18.016</v>
+        <v>16.1288</v>
       </c>
       <c r="E3" s="1">
-        <v>18.0716</v>
+        <v>16.2378</v>
       </c>
       <c r="F3" s="1">
-        <v>18.1271</v>
+        <v>16.3455</v>
       </c>
       <c r="G3" s="1">
-        <v>18.1825</v>
+        <v>16.4518</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1616</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1887</v>
+        <v>0.1462</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1804</v>
+        <v>0.1374</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1821</v>
+        <v>0.139</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1837</v>
+        <v>0.1406</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1853</v>
+        <v>0.1421</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2546</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2266</v>
+        <v>0.2563</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2017</v>
+        <v>0.2372</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2045</v>
+        <v>0.2395</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2075</v>
+        <v>0.2419</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2105</v>
+        <v>0.2444</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.555</v>
       </c>
       <c r="C6" s="4">
-        <v>0.7428</v>
+        <v>0.4913</v>
       </c>
       <c r="D6" s="4">
-        <v>0.794</v>
+        <v>0.4937</v>
       </c>
       <c r="E6" s="4">
-        <v>0.7907</v>
+        <v>0.4955</v>
       </c>
       <c r="F6" s="4">
-        <v>0.7872</v>
+        <v>0.4971</v>
       </c>
       <c r="G6" s="4">
-        <v>0.7834</v>
+        <v>0.4984</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1751</v>
+        <v>0.006</v>
       </c>
       <c r="D7" s="3">
-        <v>0.22</v>
+        <v>0.1772</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2152</v>
+        <v>0.1731</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2103</v>
+        <v>0.169</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2054</v>
+        <v>0.1648</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1826.606</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1826.606</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1826.606</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1826.606</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1826.606</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
